--- a/Relatório/time.xlsx
+++ b/Relatório/time.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\higor\Documents\GitHub\Canavial_of_Tree\Canavial_of_Tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\higor\Documents\GitHub\Canavial_of_Tree\Relatório\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Inserção do Arquivo</t>
-  </si>
-  <si>
-    <t>Remoção de um Valor</t>
-  </si>
-  <si>
-    <t>Busca de um Valor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Tipos de Árvores</t>
   </si>
@@ -52,6 +42,15 @@
   </si>
   <si>
     <t>NDA</t>
+  </si>
+  <si>
+    <t>Remoção</t>
+  </si>
+  <si>
+    <t>Busca</t>
+  </si>
+  <si>
+    <t>Inserção</t>
   </si>
 </sst>
 </file>
@@ -136,7 +135,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -147,6 +145,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -434,7 +435,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,77 +451,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1.0999999999999999E-2</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>26.927</v>
+      </c>
+      <c r="D2" s="2">
+        <v>145.36500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>9.8879999999999992E-3</v>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>18.398</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23.036999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>188.43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.2999999999999999E-2</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>19.315000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>90.453000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.0800000000000001E-2</v>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
